--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72560E0C-3DF1-4F6D-BB42-4D0D1B267984}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C9125-E03E-4B1F-9474-973FC97AB1A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,19 +856,19 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1215,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -1371,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
       <c r="D19">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C9125-E03E-4B1F-9474-973FC97AB1A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6B189-EB7E-43B7-A840-74ADD621518A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>sheet名</t>
   </si>
@@ -77,225 +77,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>屏蔽字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgInc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deCrit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2]</t>
+  </si>
+  <si>
+    <t>iniVal[3]</t>
+  </si>
+  <si>
+    <t>iniEnergy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyRg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgRed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置游戏中的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gready</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmgInc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deCrit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iniVal[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iniVal[2]</t>
-  </si>
-  <si>
-    <t>iniVal[3]</t>
-  </si>
-  <si>
-    <t>iniEnergy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmgRed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始能量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>divid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucky</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置游戏中的属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gready</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr.json</t>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +810,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -853,22 +849,22 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -889,7 +885,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,80 +896,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1007,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1033,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1059,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1085,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1111,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1137,10 +1133,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1163,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -1189,10 +1185,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -1215,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -1241,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -1267,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1293,10 +1289,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1319,10 +1315,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1345,10 +1341,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1371,10 +1367,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1395,6 +1391,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6B189-EB7E-43B7-A840-74ADD621518A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0636466-2A19-4809-8091-0382ADDD062E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>sheet名</t>
   </si>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dmgRed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,11 +283,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>行ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中属性名和属性ID的索引表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrIndex.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname,name,divid,isShow,iniVal[1],iniVal[2],iniVal[3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgDec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -809,17 +829,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
@@ -849,24 +869,47 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -884,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -922,7 +965,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -948,7 +991,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
@@ -957,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -980,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1006,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1032,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1058,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1084,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1110,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1136,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1162,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -1185,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -1211,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -1237,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -1266,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1292,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1318,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1344,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1367,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0636466-2A19-4809-8091-0382ADDD062E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A9CD52-589A-4FDD-BB41-E65396CA32C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>sheet名</t>
   </si>
@@ -312,6 +312,46 @@
   </si>
   <si>
     <t>dmgDec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deCritRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashRat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1431,6 +1471,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A9CD52-589A-4FDD-BB41-E65396CA32C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A936-B2B3-4F8A-8A9C-1EF367890E59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>sheet名</t>
   </si>
@@ -352,6 +352,14 @@
   </si>
   <si>
     <t>dashRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -965,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,6 +1609,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A936-B2B3-4F8A-8A9C-1EF367890E59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739EDC5D-3353-4BAB-846D-1CB2268C54F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739EDC5D-3353-4BAB-846D-1CB2268C54F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F61DB-3C0B-4726-A5D5-4D662FC376DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>sheet名</t>
   </si>
@@ -360,6 +360,102 @@
   </si>
   <si>
     <t>易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定弹幕的伤害能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰的血量，为0时坠毁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰的防御力，防御力越高，受到攻击伤害越低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值，受到伤害时，优先扣取护盾值。护盾值存在时才能发生格挡。护盾值不计算防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒护盾的回复速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入一个新关卡后，初始的能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒能量的回复速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升伤害能力，万分制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比降低所受伤害，万分制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升金币掉落的产量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升稀有道具的掉落概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机的暴击能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机抵抗暴击的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有护盾时，受到攻击后，发生格挡的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕的冲击力，冲击越强越不容易被格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕的攻击速度，受BUFF影响的内部属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击的伤害加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率，受BUFF影响的内部属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率，受BUFF影响的内部属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率，受BUFF影响的内部属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击率，受BUFF影响的内部属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害的提升百分比，受BUFF影响的内部属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,19 +1069,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="6" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1010,8 +1109,11 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1036,8 +1138,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1062,577 +1167,646 @@
       <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="I4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>75</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>1.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="I8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>10000</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>10000</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>10000</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>10000</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>10000</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>10000</v>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>10000</v>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>10000</v>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>10000</v>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>10000</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="E25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F61DB-3C0B-4726-A5D5-4D662FC376DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1730AA0-2129-4EDE-AE0B-8A26E768419C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>sheet名</t>
   </si>
@@ -363,99 +363,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定弹幕的伤害能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰的血量，为0时坠毁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰的防御力，防御力越高，受到攻击伤害越低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾值，受到伤害时，优先扣取护盾值。护盾值存在时才能发生格挡。护盾值不计算防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒护盾的回复速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入一个新关卡后，初始的能量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒能量的回复速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比提升伤害能力，万分制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比降低所受伤害，万分制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比提升金币掉落的产量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比提升稀有道具的掉落概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机的暴击能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机抵抗暴击的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在有护盾时，受到攻击后，发生格挡的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹幕的冲击力，冲击越强越不容易被格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹幕的攻击速度，受BUFF影响的内部属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击的伤害加成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率，受BUFF影响的内部属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴率，受BUFF影响的内部属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡率，受BUFF影响的内部属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击率，受BUFF影响的内部属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害的提升百分比，受BUFF影响的内部属性</t>
+    <t>bsFac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1072,16 +984,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="6" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="85" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1098,19 +1008,19 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1127,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1139,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1156,10 +1066,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
@@ -1168,645 +1078,645 @@
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4">
         <v>20</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>75</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7">
         <v>75</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8">
         <v>1.5</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>10000</v>
       </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>10000</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>10000</v>
       </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>10000</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>10000</v>
       </c>
-      <c r="E20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>10000</v>
       </c>
-      <c r="E21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>10000</v>
       </c>
-      <c r="E22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>10000</v>
       </c>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>10000</v>
       </c>
-      <c r="E24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>10000</v>
       </c>
-      <c r="E25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>100</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1730AA0-2129-4EDE-AE0B-8A26E768419C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0D4E9-447C-45FB-AE94-A5C89F0495DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>sheet名</t>
   </si>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>配置游戏中的属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gready</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,15 +287,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏中属性名和属性ID的索引表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrIndex.json</t>
+    <t>dmgDec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deCritRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsFac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,67 +351,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cname,name,divid,isShow,iniVal[1],iniVal[2],iniVal[3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmgDec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deCritRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blockRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashRat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vulnerable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsFac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力系数</t>
+    <t>客户端配置游戏中的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置游戏中的属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,42 +916,38 @@
         <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -983,9 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -996,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1008,7 +990,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
@@ -1025,7 +1007,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1054,7 +1036,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
@@ -1066,7 +1048,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -1318,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1347,10 +1329,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -1521,10 +1503,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1550,10 +1532,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1579,10 +1561,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -1608,10 +1590,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>10000</v>
@@ -1637,10 +1619,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>10000</v>
@@ -1666,10 +1648,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>10000</v>
@@ -1695,10 +1677,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>10000</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0D4E9-447C-45FB-AE94-A5C89F0495DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100322D9-0F0D-4231-98EA-BA9F9846374B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -967,10 +967,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
@@ -1063,641 +1067,641 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>75</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>1.5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>10000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>10000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>10000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>10000</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>30</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
         <v>30</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <v>30</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>10000</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>30</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>10000</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>10000</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>10000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>10000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>10000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100322D9-0F0D-4231-98EA-BA9F9846374B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE806B3D-B5BE-42BB-88CC-2B8C3A035C2E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>sheet名</t>
   </si>
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>服务端配置游戏中的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害(效果)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -965,16 +973,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
@@ -1264,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1290,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1319,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -1513,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1522,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1551,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1703,6 +1711,35 @@
       </c>
       <c r="I25" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE806B3D-B5BE-42BB-88CC-2B8C3A035C2E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA4B7C-DB6A-475F-B0D5-77ADDBADB06E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA4B7C-DB6A-475F-B0D5-77ADDBADB06E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92327BF8-DD22-4B7E-9228-1CE48DF41EC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>sheet名</t>
   </si>
@@ -137,16 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iniVal[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iniVal[2]</t>
-  </si>
-  <si>
-    <t>iniVal[3]</t>
-  </si>
-  <si>
     <t>iniEnergy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -364,6 +354,66 @@
   </si>
   <si>
     <t>技能伤害(效果)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[1][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[1][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[1][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[3][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[3][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[3][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[4][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[4][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[4][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[5][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[5][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[5][3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +971,10 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -934,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -942,20 +992,20 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -973,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,11 +1036,12 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="21" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -999,33 +1050,69 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1034,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1045,37 +1132,109 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1083,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1103,8 +1262,44 @@
       <c r="I4" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1112,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1132,8 +1327,44 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1141,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1161,8 +1392,44 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1170,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1190,8 +1457,44 @@
       <c r="I7" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1199,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1219,16 +1522,52 @@
       <c r="I8" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1248,16 +1587,52 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1277,8 +1652,44 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1286,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>10000</v>
@@ -1306,16 +1717,52 @@
       <c r="I11" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4">
         <v>10000</v>
@@ -1335,16 +1782,52 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>10000</v>
@@ -1364,16 +1847,52 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4">
         <v>10000</v>
@@ -1393,8 +1912,44 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1402,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1422,8 +1977,44 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1431,7 +2022,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1451,8 +2042,44 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1460,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1480,8 +2107,44 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1489,7 +2152,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1509,16 +2172,52 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4">
         <v>10000</v>
@@ -1538,16 +2237,52 @@
       <c r="I19" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
         <v>10000</v>
@@ -1567,16 +2302,52 @@
       <c r="I20" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D21" s="4">
         <v>10000</v>
@@ -1596,16 +2367,52 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D22" s="4">
         <v>10000</v>
@@ -1625,16 +2432,52 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="4">
         <v>10000</v>
@@ -1654,16 +2497,52 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4">
         <v>10000</v>
@@ -1683,16 +2562,52 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4">
         <v>10000</v>
@@ -1712,16 +2627,52 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4">
         <v>10000</v>
@@ -1740,6 +2691,42 @@
       </c>
       <c r="I26" s="4">
         <v>10000</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92327BF8-DD22-4B7E-9228-1CE48DF41EC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372BD398-B211-4530-A873-D15ECE997EA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4">
         <v>75</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4">
         <v>1.5</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372BD398-B211-4530-A873-D15ECE997EA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4D35F-247A-40B7-8B5A-E59D5EDE65E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4D35F-247A-40B7-8B5A-E59D5EDE65E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43912B99-6207-4551-86EE-94D951ACB728}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>sheet名</t>
   </si>
@@ -414,6 +414,26 @@
   </si>
   <si>
     <t>iniVal[5][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,12 +1054,13 @@
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="21" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="22" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1059,52 +1080,55 @@
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1168,8 +1192,11 @@
       <c r="U2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="V2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -1189,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
@@ -1233,8 +1260,11 @@
       <c r="U3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1253,9 +1283,7 @@
       <c r="F4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>20</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
         <v>20</v>
       </c>
@@ -1263,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
@@ -1298,8 +1326,11 @@
       <c r="U4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1318,17 +1349,15 @@
       <c r="F5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1363,8 +1392,11 @@
       <c r="U5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1383,17 +1415,15 @@
       <c r="F6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -1428,8 +1458,11 @@
       <c r="U6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1448,17 +1481,15 @@
       <c r="F7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>150</v>
-      </c>
-      <c r="H7" s="4">
-        <v>75</v>
       </c>
       <c r="I7" s="4">
         <v>75</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
@@ -1493,8 +1524,11 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1513,17 +1547,17 @@
       <c r="F8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4">
         <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.5</v>
       </c>
       <c r="I8" s="4">
         <v>1.5</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -1558,8 +1592,11 @@
       <c r="U8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1578,9 +1615,7 @@
       <c r="F9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
         <v>0</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
@@ -1623,8 +1658,11 @@
       <c r="U9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1643,8 +1681,8 @@
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1688,8 +1726,11 @@
       <c r="U10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1708,8 +1749,8 @@
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>10000</v>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="4">
         <v>10000</v>
@@ -1718,7 +1759,7 @@
         <v>10000</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -1753,8 +1794,11 @@
       <c r="U11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1773,17 +1817,17 @@
       <c r="F12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="4">
         <v>10000</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -1818,8 +1862,11 @@
       <c r="U12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1838,8 +1885,8 @@
       <c r="F13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
+      <c r="G13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -1848,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -1883,8 +1930,11 @@
       <c r="U13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1903,8 +1953,8 @@
       <c r="F14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
+      <c r="G14" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1913,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -1948,8 +1998,11 @@
       <c r="U14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1968,9 +2021,7 @@
       <c r="F15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
         <v>0</v>
       </c>
@@ -1978,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -2013,8 +2064,11 @@
       <c r="U15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2033,9 +2087,7 @@
       <c r="F16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
         <v>0</v>
       </c>
@@ -2043,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -2078,8 +2130,11 @@
       <c r="U16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2098,9 +2153,7 @@
       <c r="F17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4">
         <v>0</v>
       </c>
@@ -2108,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <v>1</v>
@@ -2143,8 +2196,11 @@
       <c r="U17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2163,9 +2219,7 @@
       <c r="F18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4">
         <v>0</v>
       </c>
@@ -2173,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -2208,8 +2262,11 @@
       <c r="U18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2220,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2228,8 +2285,8 @@
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
-        <v>10000</v>
+      <c r="G19" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H19" s="4">
         <v>10000</v>
@@ -2238,7 +2295,7 @@
         <v>10000</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2273,8 +2330,11 @@
       <c r="U19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2285,7 +2345,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4">
         <v>30</v>
@@ -2293,8 +2353,8 @@
       <c r="F20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
-        <v>15000</v>
+      <c r="G20" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H20" s="4">
         <v>15000</v>
@@ -2303,7 +2363,7 @@
         <v>15000</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -2338,8 +2398,11 @@
       <c r="U20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2350,7 +2413,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2358,17 +2421,17 @@
       <c r="F21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="4">
         <v>3000</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -2403,8 +2466,11 @@
       <c r="U21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2415,7 +2481,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2423,8 +2489,8 @@
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -2433,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
@@ -2468,8 +2534,11 @@
       <c r="U22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2480,7 +2549,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2488,8 +2557,8 @@
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
+      <c r="G23" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -2498,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>1</v>
@@ -2533,8 +2602,11 @@
       <c r="U23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2545,7 +2617,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2553,8 +2625,8 @@
       <c r="F24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
+      <c r="G24" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -2563,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -2598,8 +2670,11 @@
       <c r="U24" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2610,7 +2685,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2618,8 +2693,8 @@
       <c r="F25" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
+      <c r="G25" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -2628,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -2663,8 +2738,11 @@
       <c r="U25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2675,7 +2753,7 @@
         <v>74</v>
       </c>
       <c r="D26" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2683,8 +2761,8 @@
       <c r="F26" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
-        <v>10000</v>
+      <c r="G26" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H26" s="4">
         <v>10000</v>
@@ -2693,7 +2771,7 @@
         <v>10000</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -2726,6 +2804,9 @@
         <v>1</v>
       </c>
       <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43912B99-6207-4551-86EE-94D951ACB728}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784296C9-3423-435A-8E7F-A71129305050}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="b">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="b">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784296C9-3423-435A-8E7F-A71129305050}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3501BE9-8ED7-49AD-AC7B-B4698D47ACEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>sheet名</t>
   </si>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,9 +1749,7 @@
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
         <v>10000</v>
       </c>
@@ -1817,9 +1815,7 @@
       <c r="F12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
         <v>10000</v>
       </c>
@@ -1885,9 +1881,7 @@
       <c r="F13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -1953,9 +1947,7 @@
       <c r="F14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
         <v>0</v>
       </c>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3501BE9-8ED7-49AD-AC7B-B4698D47ACEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE52230-AF9F-4AC2-825D-24606F3599FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>sheet名</t>
   </si>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1749,9 @@
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="4">
         <v>10000</v>
       </c>
@@ -1815,7 +1817,9 @@
       <c r="F12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H12" s="4">
         <v>10000</v>
       </c>
@@ -1881,7 +1885,9 @@
       <c r="F13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -1947,7 +1953,9 @@
       <c r="F14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE52230-AF9F-4AC2-825D-24606F3599FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DECF8-61DA-426E-8361-3C85DC72E638}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,13 +2289,13 @@
         <v>93</v>
       </c>
       <c r="H19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="J19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2357,13 +2357,13 @@
         <v>93</v>
       </c>
       <c r="H20" s="4">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="I20" s="4">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="J20" s="4">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="4">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2765,13 +2765,13 @@
         <v>93</v>
       </c>
       <c r="H26" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I26" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="J26" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DECF8-61DA-426E-8361-3C85DC72E638}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F30DF-FC2E-4CB5-96FA-77A2AA7F4F17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F30DF-FC2E-4CB5-96FA-77A2AA7F4F17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982121A-FA84-4475-8AD9-63CACF19CE29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -1753,13 +1753,13 @@
         <v>93</v>
       </c>
       <c r="H11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="J11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="H12" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982121A-FA84-4475-8AD9-63CACF19CE29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC497B-C7E6-42C7-A46E-6DE186A9596C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC497B-C7E6-42C7-A46E-6DE186A9596C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16765B13-3B74-4DFC-A271-30A4396E999A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>sheet名</t>
   </si>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,6 +430,30 @@
   </si>
   <si>
     <t>/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据层除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBsSubIni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算战斗力时是否减初值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +1011,10 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1004,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1012,20 +1032,20 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1043,26 +1063,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="22" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="24" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1074,63 +1096,69 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1142,19 +1170,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1195,10 +1223,16 @@
       <c r="V2" t="s">
         <v>7</v>
       </c>
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1207,22 +1241,22 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -1263,8 +1297,14 @@
       <c r="V3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="W3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1278,26 +1318,26 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
-        <v>20</v>
-      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4">
         <v>20</v>
       </c>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M4" s="4">
         <v>1</v>
@@ -1329,8 +1369,14 @@
       <c r="V4" s="4">
         <v>1</v>
       </c>
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1346,24 +1392,24 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>100</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -1395,8 +1441,14 @@
       <c r="V5" s="4">
         <v>1</v>
       </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1410,26 +1462,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -1461,8 +1513,14 @@
       <c r="V6" s="4">
         <v>1</v>
       </c>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1478,25 +1536,25 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>150</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>75</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <v>75</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
       <c r="M7" s="4">
         <v>1</v>
       </c>
@@ -1527,8 +1585,14 @@
       <c r="V7" s="4">
         <v>1</v>
       </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1542,29 +1606,29 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>1.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>1.5</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
       <c r="M8" s="4">
         <v>1</v>
       </c>
@@ -1595,8 +1659,14 @@
       <c r="V8" s="4">
         <v>1</v>
       </c>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1610,26 +1680,26 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -1661,8 +1731,14 @@
       <c r="V9" s="4">
         <v>1</v>
       </c>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1676,19 +1752,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -1729,8 +1805,14 @@
       <c r="V10" s="4">
         <v>1</v>
       </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1741,31 +1823,31 @@
         <v>36</v>
       </c>
       <c r="D11" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="4">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4">
-        <v>100</v>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J11" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="M11" s="4">
         <v>1</v>
@@ -1797,43 +1879,49 @@
       <c r="V11" s="4">
         <v>1</v>
       </c>
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="4">
         <v>100</v>
       </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="4">
-        <v>100</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>1</v>
@@ -1865,43 +1953,49 @@
       <c r="V12" s="4">
         <v>1</v>
       </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -1933,43 +2027,49 @@
       <c r="V13" s="4">
         <v>1</v>
       </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>1</v>
@@ -2001,8 +2101,14 @@
       <c r="V14" s="4">
         <v>1</v>
       </c>
+      <c r="W14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2010,32 +2116,32 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
         <v>1</v>
@@ -2067,8 +2173,14 @@
       <c r="V15" s="4">
         <v>1</v>
       </c>
+      <c r="W15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2076,32 +2188,32 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>30</v>
       </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>1</v>
@@ -2133,8 +2245,14 @@
       <c r="V16" s="4">
         <v>1</v>
       </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2142,32 +2260,32 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
         <v>30</v>
       </c>
-      <c r="F17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
         <v>1</v>
@@ -2199,8 +2317,14 @@
       <c r="V17" s="4">
         <v>1</v>
       </c>
+      <c r="W17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2208,32 +2332,32 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
         <v>1</v>
@@ -2265,43 +2389,49 @@
       <c r="V18" s="4">
         <v>1</v>
       </c>
+      <c r="W18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="4">
-        <v>100</v>
-      </c>
-      <c r="I19" s="4">
-        <v>100</v>
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J19" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
@@ -2333,43 +2463,49 @@
       <c r="V19" s="4">
         <v>1</v>
       </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D20" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="4">
         <v>30</v>
       </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="4">
-        <v>150</v>
-      </c>
-      <c r="I20" s="4">
-        <v>150</v>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="4">
-        <v>150</v>
+        <v>15000</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="M20" s="4">
         <v>1</v>
@@ -2401,43 +2537,49 @@
       <c r="V20" s="4">
         <v>1</v>
       </c>
+      <c r="W20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="4">
         <v>30</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <v>1</v>
@@ -2469,43 +2611,49 @@
       <c r="V21" s="4">
         <v>1</v>
       </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
@@ -2537,43 +2685,49 @@
       <c r="V22" s="4">
         <v>1</v>
       </c>
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4">
         <v>1</v>
@@ -2605,43 +2759,49 @@
       <c r="V23" s="4">
         <v>1</v>
       </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>1</v>
@@ -2673,43 +2833,49 @@
       <c r="V24" s="4">
         <v>1</v>
       </c>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
@@ -2741,43 +2907,49 @@
       <c r="V25" s="4">
         <v>1</v>
       </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="4">
-        <v>100</v>
-      </c>
-      <c r="I26" s="4">
-        <v>100</v>
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J26" s="4">
         <v>100</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M26" s="4">
         <v>1</v>
@@ -2807,6 +2979,12 @@
         <v>1</v>
       </c>
       <c r="V26" s="4">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16765B13-3B74-4DFC-A271-30A4396E999A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982121A-FA84-4475-8AD9-63CACF19CE29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>sheet名</t>
   </si>
@@ -213,6 +213,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>分母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>暴击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -430,30 +434,6 @@
   </si>
   <si>
     <t>/s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端乘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据层除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBsSubIni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算战斗力时是否减初值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +991,10 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1024,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1032,20 +1012,20 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1063,28 +1043,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="24" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="22" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1096,69 +1074,63 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1170,19 +1142,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1223,16 +1195,10 @@
       <c r="V2" t="s">
         <v>7</v>
       </c>
-      <c r="W2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1241,22 +1207,22 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -1297,14 +1263,8 @@
       <c r="V3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1318,26 +1278,26 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4">
+        <v>20</v>
+      </c>
       <c r="J4" s="4">
         <v>20</v>
       </c>
       <c r="K4" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
         <v>1</v>
@@ -1369,14 +1329,8 @@
       <c r="V4" s="4">
         <v>1</v>
       </c>
-      <c r="W4" s="4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1392,24 +1346,24 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
       <c r="J5" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -1441,14 +1395,8 @@
       <c r="V5" s="4">
         <v>1</v>
       </c>
-      <c r="W5" s="4">
-        <v>1</v>
-      </c>
-      <c r="X5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1462,26 +1410,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
       <c r="J6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -1513,14 +1461,8 @@
       <c r="V6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1536,24 +1478,24 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>150</v>
+      </c>
+      <c r="I7" s="4">
+        <v>75</v>
+      </c>
       <c r="J7" s="4">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="K7" s="4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -1585,14 +1527,8 @@
       <c r="V7" s="4">
         <v>1</v>
       </c>
-      <c r="W7" s="4">
-        <v>1</v>
-      </c>
-      <c r="X7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1606,28 +1542,28 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>93</v>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.5</v>
       </c>
       <c r="J8" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K8" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
@@ -1659,14 +1595,8 @@
       <c r="V8" s="4">
         <v>1</v>
       </c>
-      <c r="W8" s="4">
-        <v>1</v>
-      </c>
-      <c r="X8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1680,26 +1610,26 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -1731,14 +1661,8 @@
       <c r="V9" s="4">
         <v>1</v>
       </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1752,19 +1676,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -1805,14 +1729,8 @@
       <c r="V10" s="4">
         <v>1</v>
       </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1823,31 +1741,31 @@
         <v>36</v>
       </c>
       <c r="D11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>92</v>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
+        <v>100</v>
       </c>
       <c r="J11" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K11" s="4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
         <v>1</v>
@@ -1879,49 +1797,43 @@
       <c r="V11" s="4">
         <v>1</v>
       </c>
-      <c r="W11" s="4">
-        <v>1</v>
-      </c>
-      <c r="X11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>92</v>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
         <v>1</v>
@@ -1953,49 +1865,43 @@
       <c r="V12" s="4">
         <v>1</v>
       </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -2027,49 +1933,43 @@
       <c r="V13" s="4">
         <v>1</v>
       </c>
-      <c r="W13" s="4">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4">
         <v>1</v>
@@ -2101,14 +2001,8 @@
       <c r="V14" s="4">
         <v>1</v>
       </c>
-      <c r="W14" s="4">
-        <v>1</v>
-      </c>
-      <c r="X14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2116,32 +2010,32 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
         <v>30</v>
       </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4">
         <v>1</v>
@@ -2173,14 +2067,8 @@
       <c r="V15" s="4">
         <v>1</v>
       </c>
-      <c r="W15" s="4">
-        <v>1</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2188,32 +2076,32 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
         <v>30</v>
       </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
       <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
         <v>1</v>
@@ -2245,14 +2133,8 @@
       <c r="V16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="4">
-        <v>1</v>
-      </c>
-      <c r="X16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2260,32 +2142,32 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
       <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
         <v>1</v>
@@ -2317,14 +2199,8 @@
       <c r="V17" s="4">
         <v>1</v>
       </c>
-      <c r="W17" s="4">
-        <v>1</v>
-      </c>
-      <c r="X17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2332,32 +2208,32 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
         <v>30</v>
       </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4"/>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>1</v>
@@ -2389,49 +2265,43 @@
       <c r="V18" s="4">
         <v>1</v>
       </c>
-      <c r="W18" s="4">
-        <v>1</v>
-      </c>
-      <c r="X18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="I19" s="4">
+        <v>100</v>
       </c>
       <c r="J19" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K19" s="4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
@@ -2463,49 +2333,43 @@
       <c r="V19" s="4">
         <v>1</v>
       </c>
-      <c r="W19" s="4">
-        <v>1</v>
-      </c>
-      <c r="X19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="4">
         <v>30</v>
       </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>92</v>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="4">
+        <v>150</v>
+      </c>
+      <c r="I20" s="4">
+        <v>150</v>
       </c>
       <c r="J20" s="4">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="K20" s="4">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
         <v>1</v>
@@ -2537,49 +2401,43 @@
       <c r="V20" s="4">
         <v>1</v>
       </c>
-      <c r="W20" s="4">
-        <v>1</v>
-      </c>
-      <c r="X20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="4">
+        <v>30</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>1</v>
@@ -2611,49 +2469,43 @@
       <c r="V21" s="4">
         <v>1</v>
       </c>
-      <c r="W21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
@@ -2685,49 +2537,43 @@
       <c r="V22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="4">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
         <v>1</v>
@@ -2759,49 +2605,43 @@
       <c r="V23" s="4">
         <v>1</v>
       </c>
-      <c r="W23" s="4">
-        <v>1</v>
-      </c>
-      <c r="X23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
         <v>1</v>
@@ -2833,49 +2673,43 @@
       <c r="V24" s="4">
         <v>1</v>
       </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
@@ -2907,49 +2741,43 @@
       <c r="V25" s="4">
         <v>1</v>
       </c>
-      <c r="W25" s="4">
-        <v>1</v>
-      </c>
-      <c r="X25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="4">
+        <v>100</v>
+      </c>
+      <c r="I26" s="4">
+        <v>100</v>
       </c>
       <c r="J26" s="4">
         <v>100</v>
       </c>
       <c r="K26" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
         <v>1</v>
@@ -2979,12 +2807,6 @@
         <v>1</v>
       </c>
       <c r="V26" s="4">
-        <v>1</v>
-      </c>
-      <c r="W26" s="4">
-        <v>1</v>
-      </c>
-      <c r="X26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982121A-FA84-4475-8AD9-63CACF19CE29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327CD7D5-2757-43CA-B6D3-27B15BB5E276}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2357,13 +2357,13 @@
         <v>93</v>
       </c>
       <c r="H20" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I20" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J20" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327CD7D5-2757-43CA-B6D3-27B15BB5E276}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6769BAB-02D5-428D-9029-298F5681506C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,10 +1288,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="J4" s="4">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6769BAB-02D5-428D-9029-298F5681506C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7925D-8AFE-4107-A0EB-AD031CE2E346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7925D-8AFE-4107-A0EB-AD031CE2E346}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1D1C6-C608-42EB-9C48-AB6A4145BE46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1D1C6-C608-42EB-9C48-AB6A4145BE46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AEE18-299F-4BEF-9353-3AD5CD23D77D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2425,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AEE18-299F-4BEF-9353-3AD5CD23D77D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E7BC49-E27D-4370-8F9C-EE615EF949C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,7 @@
         <v>93</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E7BC49-E27D-4370-8F9C-EE615EF949C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23925B4D-AFCD-4E35-B126-68C60F45E6CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性表" sheetId="42" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23925B4D-AFCD-4E35-B126-68C60F45E6CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBA4DD-390D-473D-8039-3335C3D783BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2428,10 +2428,10 @@
         <v>15</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBA4DD-390D-473D-8039-3335C3D783BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1083B9-C7A4-4A2C-B5F6-7387BE1A5644}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1483,13 +1483,13 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I7" s="4">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="J7" s="4">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1083B9-C7A4-4A2C-B5F6-7387BE1A5644}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B1583-A69F-4F15-AD51-6F52894E1419}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>sheet名</t>
   </si>
@@ -434,6 +434,14 @@
   </si>
   <si>
     <t>/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subIniBs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减去初始战力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1043,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,13 +1062,14 @@
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="22" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="23" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1080,55 +1089,58 @@
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1148,10 +1160,10 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1195,8 +1207,11 @@
       <c r="V2" t="s">
         <v>7</v>
       </c>
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -1216,10 +1231,10 @@
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>28</v>
@@ -1263,8 +1278,11 @@
       <c r="V3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="W3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1283,19 +1301,19 @@
       <c r="F4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>20</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>300</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>600</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
@@ -1329,8 +1347,11 @@
       <c r="V4" s="4">
         <v>1</v>
       </c>
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1349,18 +1370,18 @@
       <c r="F5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
         <v>100</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
@@ -1395,8 +1416,11 @@
       <c r="V5" s="4">
         <v>1</v>
       </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1415,18 +1439,18 @@
       <c r="F6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
@@ -1461,8 +1485,11 @@
       <c r="V6" s="4">
         <v>1</v>
       </c>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1481,18 +1508,18 @@
       <c r="F7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
         <v>300</v>
-      </c>
-      <c r="I7" s="4">
-        <v>200</v>
       </c>
       <c r="J7" s="4">
         <v>200</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
@@ -1527,8 +1554,11 @@
       <c r="V7" s="4">
         <v>1</v>
       </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1547,20 +1577,20 @@
       <c r="F8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>2</v>
       </c>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
@@ -1595,8 +1625,11 @@
       <c r="V8" s="4">
         <v>1</v>
       </c>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1615,10 +1648,10 @@
       <c r="F9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4">
         <v>0</v>
       </c>
@@ -1626,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
@@ -1661,8 +1694,11 @@
       <c r="V9" s="4">
         <v>1</v>
       </c>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1681,12 +1717,12 @@
       <c r="F10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
       <c r="I10" s="4">
         <v>1</v>
       </c>
@@ -1729,8 +1765,11 @@
       <c r="V10" s="4">
         <v>1</v>
       </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1744,16 +1783,16 @@
         <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H11" s="4">
-        <v>100</v>
       </c>
       <c r="I11" s="4">
         <v>100</v>
@@ -1762,7 +1801,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L11" s="4">
         <v>1</v>
@@ -1797,8 +1836,11 @@
       <c r="V11" s="4">
         <v>1</v>
       </c>
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1812,25 +1854,25 @@
         <v>100</v>
       </c>
       <c r="E12" s="4">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>100</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
@@ -1865,8 +1907,11 @@
       <c r="V12" s="4">
         <v>1</v>
       </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1885,12 +1930,12 @@
       <c r="F13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
         <v>1</v>
@@ -1933,8 +1978,11 @@
       <c r="V13" s="4">
         <v>1</v>
       </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1953,12 +2001,12 @@
       <c r="F14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
@@ -1966,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
@@ -2001,8 +2049,11 @@
       <c r="V14" s="4">
         <v>1</v>
       </c>
+      <c r="W14" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2021,10 +2072,10 @@
       <c r="F15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4">
         <v>0</v>
       </c>
@@ -2032,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
@@ -2067,8 +2118,11 @@
       <c r="V15" s="4">
         <v>1</v>
       </c>
+      <c r="W15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2087,10 +2141,10 @@
       <c r="F16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
+      <c r="G16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4">
         <v>0</v>
       </c>
@@ -2098,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
         <v>1</v>
@@ -2133,8 +2187,11 @@
       <c r="V16" s="4">
         <v>1</v>
       </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2153,10 +2210,10 @@
       <c r="F17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4">
         <v>0</v>
       </c>
@@ -2164,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
@@ -2199,8 +2256,11 @@
       <c r="V17" s="4">
         <v>1</v>
       </c>
+      <c r="W17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2219,10 +2279,10 @@
       <c r="F18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4">
         <v>0</v>
       </c>
@@ -2230,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <v>1</v>
@@ -2265,8 +2325,11 @@
       <c r="V18" s="4">
         <v>1</v>
       </c>
+      <c r="W18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2285,11 +2348,11 @@
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H19" s="4">
-        <v>100</v>
       </c>
       <c r="I19" s="4">
         <v>100</v>
@@ -2298,7 +2361,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
@@ -2333,8 +2396,11 @@
       <c r="V19" s="4">
         <v>1</v>
       </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2348,16 +2414,16 @@
         <v>100</v>
       </c>
       <c r="E20" s="4">
-        <v>30</v>
+        <v>100000</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H20" s="4">
-        <v>200</v>
       </c>
       <c r="I20" s="4">
         <v>200</v>
@@ -2366,7 +2432,7 @@
         <v>200</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
@@ -2401,8 +2467,11 @@
       <c r="V20" s="4">
         <v>1</v>
       </c>
+      <c r="W20" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2421,11 +2490,11 @@
       <c r="F21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H21" s="4">
-        <v>15</v>
       </c>
       <c r="I21" s="4">
         <v>15</v>
@@ -2434,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L21" s="4">
         <v>1</v>
@@ -2469,8 +2538,11 @@
       <c r="V21" s="4">
         <v>1</v>
       </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2489,12 +2561,12 @@
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
@@ -2502,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4">
         <v>1</v>
@@ -2537,8 +2609,11 @@
       <c r="V22" s="4">
         <v>1</v>
       </c>
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2557,20 +2632,20 @@
       <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>30</v>
       </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
         <v>1</v>
@@ -2605,8 +2680,11 @@
       <c r="V23" s="4">
         <v>1</v>
       </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2625,12 +2703,12 @@
       <c r="F24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
@@ -2638,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
         <v>1</v>
@@ -2673,8 +2751,11 @@
       <c r="V24" s="4">
         <v>1</v>
       </c>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2693,12 +2774,12 @@
       <c r="F25" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
@@ -2706,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
         <v>1</v>
@@ -2741,8 +2822,11 @@
       <c r="V25" s="4">
         <v>1</v>
       </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2761,11 +2845,11 @@
       <c r="F26" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H26" s="4">
-        <v>100</v>
       </c>
       <c r="I26" s="4">
         <v>100</v>
@@ -2774,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L26" s="4">
         <v>1</v>
@@ -2807,6 +2891,9 @@
         <v>1</v>
       </c>
       <c r="V26" s="4">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B1583-A69F-4F15-AD51-6F52894E1419}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D131F-9821-47D8-84E0-3D090D7A4A9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1306,13 +1306,13 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1513,13 +1513,13 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
@@ -1584,13 +1584,13 @@
         <v>94</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D131F-9821-47D8-84E0-3D090D7A4A9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B16F2F0-14F1-4D0D-A5CC-DFA07A6BAF9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>sheet名</t>
   </si>
@@ -442,6 +442,18 @@
   </si>
   <si>
     <t>减去初始战力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[6][1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[6][2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[6][3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1078,10 @@
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="23" width="15.625" customWidth="1"/>
+    <col min="12" max="26" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1139,8 +1151,17 @@
       <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1210,8 +1231,17 @@
       <c r="W2" t="s">
         <v>7</v>
       </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -1281,8 +1311,17 @@
       <c r="W3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1350,8 +1389,17 @@
       <c r="W4" s="4">
         <v>1</v>
       </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1419,8 +1467,17 @@
       <c r="W5" s="4">
         <v>1</v>
       </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1488,8 +1545,17 @@
       <c r="W6" s="4">
         <v>1</v>
       </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1557,8 +1623,17 @@
       <c r="W7" s="4">
         <v>1</v>
       </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1628,8 +1703,17 @@
       <c r="W8" s="4">
         <v>1</v>
       </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1697,8 +1781,17 @@
       <c r="W9" s="4">
         <v>1</v>
       </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1768,8 +1861,17 @@
       <c r="W10" s="4">
         <v>1</v>
       </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1839,8 +1941,17 @@
       <c r="W11" s="4">
         <v>1</v>
       </c>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1910,8 +2021,17 @@
       <c r="W12" s="4">
         <v>1</v>
       </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1981,8 +2101,17 @@
       <c r="W13" s="4">
         <v>1</v>
       </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2052,8 +2181,17 @@
       <c r="W14" s="4">
         <v>1</v>
       </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2121,8 +2259,17 @@
       <c r="W15" s="4">
         <v>1</v>
       </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2190,8 +2337,17 @@
       <c r="W16" s="4">
         <v>1</v>
       </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2259,8 +2415,17 @@
       <c r="W17" s="4">
         <v>1</v>
       </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2328,8 +2493,17 @@
       <c r="W18" s="4">
         <v>1</v>
       </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2399,8 +2573,17 @@
       <c r="W19" s="4">
         <v>1</v>
       </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2470,8 +2653,17 @@
       <c r="W20" s="4">
         <v>1</v>
       </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2541,8 +2733,17 @@
       <c r="W21" s="4">
         <v>1</v>
       </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2612,8 +2813,17 @@
       <c r="W22" s="4">
         <v>1</v>
       </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2683,8 +2893,17 @@
       <c r="W23" s="4">
         <v>1</v>
       </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2754,8 +2973,17 @@
       <c r="W24" s="4">
         <v>1</v>
       </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2825,8 +3053,17 @@
       <c r="W25" s="4">
         <v>1</v>
       </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2894,6 +3131,15 @@
         <v>1</v>
       </c>
       <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B16F2F0-14F1-4D0D-A5CC-DFA07A6BAF9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BF9F9-9192-4D32-B7FE-CEE6ECF75E24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2057,7 +2057,7 @@
         <v>93</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>93</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BF9F9-9192-4D32-B7FE-CEE6ECF75E24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D2DB2-4DA5-4678-AE44-AF9315F83F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2211,17 +2211,17 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
@@ -2517,13 +2517,13 @@
         <v>100</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>93</v>
@@ -2689,13 +2689,13 @@
         <v>93</v>
       </c>
       <c r="I21" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D2DB2-4DA5-4678-AE44-AF9315F83F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C8733-0E0F-426C-BDF9-23EEE7B36550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伤害降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>divid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -454,6 +450,10 @@
   </si>
   <si>
     <t>iniVal[6][3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1024,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1032,20 +1032,20 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1092,78 +1092,78 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1184,7 +1184,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1252,19 +1252,19 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>28</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="4">
         <v>100</v>
@@ -1956,10 +1956,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
         <v>100</v>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4">
         <v>100</v>
@@ -2036,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>100</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="4">
         <v>100</v>
@@ -2116,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="4">
         <v>100</v>
@@ -2199,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2218,10 +2218,10 @@
         <v>150</v>
       </c>
       <c r="J15" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K15" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="4">
         <v>100</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="4">
         <v>100</v>
@@ -2588,10 +2588,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="4">
         <v>100</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="4">
         <v>200</v>
@@ -2668,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>100</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4">
         <v>100</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -2828,10 +2828,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4">
         <v>100</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="4">
         <v>30</v>
@@ -2908,10 +2908,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4">
         <v>100</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="4">
         <v>100</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="4">
         <v>100</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C8733-0E0F-426C-BDF9-23EEE7B36550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CCD51-A607-46F2-B045-7C691F81AA0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1885,7 +1885,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="F11" s="4" t="b">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="4">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="4">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="F19" s="4" t="b">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="4">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="F20" s="4" t="b">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CCD51-A607-46F2-B045-7C691F81AA0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022754AD-3AED-47B1-A579-AABA3D7A1261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022754AD-3AED-47B1-A579-AABA3D7A1261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EEDF7-7EFE-4686-B05D-A896AFC9B298}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>耐久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,10 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贪婪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>atkSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -454,6 +446,14 @@
   </si>
   <si>
     <t>伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1024,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1032,20 +1032,20 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1092,78 +1092,78 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1184,7 +1184,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1252,19 +1252,19 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>28</v>
@@ -1407,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="4">
         <v>100</v>
@@ -1956,10 +1956,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4">
         <v>100</v>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="4">
         <v>100</v>
@@ -2036,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4">
         <v>100</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4">
         <v>100</v>
@@ -2116,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="4">
         <v>100</v>
@@ -2199,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4">
         <v>100</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="4">
         <v>100</v>
@@ -2588,10 +2588,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4">
         <v>100</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I20" s="4">
         <v>200</v>
@@ -2668,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <v>100</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4">
         <v>100</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -2828,10 +2828,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4">
         <v>100</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I23" s="4">
         <v>30</v>
@@ -2908,10 +2908,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4">
         <v>100</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4">
         <v>100</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I26" s="4">
         <v>100</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EEDF7-7EFE-4686-B05D-A896AFC9B298}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A144E3-0DDD-4393-97E0-F05E1BFAFFBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="b">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4" t="b">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="b">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18" s="4" t="b">
         <v>1</v>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A144E3-0DDD-4393-97E0-F05E1BFAFFBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB62E74A-56E3-493E-A3E7-59D592D66EDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB62E74A-56E3-493E-A3E7-59D592D66EDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8553C-D58D-4389-9865-697A45D2735B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>sheet名</t>
   </si>
@@ -454,6 +454,46 @@
   </si>
   <si>
     <t>财富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[1][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[3][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[4][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[5][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[6][4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠初始值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1063,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,11 +1117,22 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="26" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="17" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="11.125" customWidth="1"/>
+    <col min="21" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="11.125" customWidth="1"/>
+    <col min="25" max="27" width="15.625" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="31" width="15.625" customWidth="1"/>
+    <col min="32" max="32" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -1116,52 +1167,70 @@
         <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1240,8 +1309,26 @@
       <c r="Z2" t="s">
         <v>7</v>
       </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1267,16 +1354,16 @@
         <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>28</v>
@@ -1320,8 +1407,26 @@
       <c r="Z3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1354,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>1</v>
@@ -1398,8 +1503,26 @@
       <c r="Z4" s="4">
         <v>1</v>
       </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1432,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -1476,8 +1599,26 @@
       <c r="Z5" s="4">
         <v>1</v>
       </c>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1510,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
@@ -1554,8 +1695,26 @@
       <c r="Z6" s="4">
         <v>1</v>
       </c>
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1588,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
@@ -1632,8 +1791,26 @@
       <c r="Z7" s="4">
         <v>1</v>
       </c>
+      <c r="AA7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1668,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
@@ -1712,8 +1889,26 @@
       <c r="Z8" s="4">
         <v>1</v>
       </c>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1746,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -1790,8 +1985,26 @@
       <c r="Z9" s="4">
         <v>1</v>
       </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1870,8 +2083,26 @@
       <c r="Z10" s="4">
         <v>1</v>
       </c>
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1906,7 +2137,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M11" s="4">
         <v>1</v>
@@ -1950,8 +2181,26 @@
       <c r="Z11" s="4">
         <v>1</v>
       </c>
+      <c r="AA11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1986,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>1</v>
@@ -2030,8 +2279,26 @@
       <c r="Z12" s="4">
         <v>1</v>
       </c>
+      <c r="AA12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2066,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -2110,8 +2377,26 @@
       <c r="Z13" s="4">
         <v>1</v>
       </c>
+      <c r="AA13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2146,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>1</v>
@@ -2190,8 +2475,26 @@
       <c r="Z14" s="4">
         <v>1</v>
       </c>
+      <c r="AA14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2224,7 +2527,7 @@
         <v>300</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="M15" s="4">
         <v>1</v>
@@ -2268,8 +2571,26 @@
       <c r="Z15" s="4">
         <v>1</v>
       </c>
+      <c r="AA15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2302,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>1</v>
@@ -2346,8 +2667,26 @@
       <c r="Z16" s="4">
         <v>1</v>
       </c>
+      <c r="AA16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2380,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
         <v>1</v>
@@ -2424,8 +2763,26 @@
       <c r="Z17" s="4">
         <v>1</v>
       </c>
+      <c r="AA17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2458,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
         <v>1</v>
@@ -2502,8 +2859,26 @@
       <c r="Z18" s="4">
         <v>1</v>
       </c>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2538,7 +2913,7 @@
         <v>100</v>
       </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
@@ -2582,8 +2957,26 @@
       <c r="Z19" s="4">
         <v>1</v>
       </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2618,7 +3011,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="M20" s="4">
         <v>1</v>
@@ -2662,8 +3055,26 @@
       <c r="Z20" s="4">
         <v>1</v>
       </c>
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2698,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <v>1</v>
@@ -2742,8 +3153,26 @@
       <c r="Z21" s="4">
         <v>1</v>
       </c>
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2778,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
@@ -2822,8 +3251,26 @@
       <c r="Z22" s="4">
         <v>1</v>
       </c>
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2858,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4">
         <v>1</v>
@@ -2902,8 +3349,26 @@
       <c r="Z23" s="4">
         <v>1</v>
       </c>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2938,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>1</v>
@@ -2982,8 +3447,26 @@
       <c r="Z24" s="4">
         <v>1</v>
       </c>
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3018,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
@@ -3062,8 +3545,26 @@
       <c r="Z25" s="4">
         <v>1</v>
       </c>
+      <c r="AA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3098,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M26" s="4">
         <v>1</v>
@@ -3140,6 +3641,24 @@
         <v>1</v>
       </c>
       <c r="Z26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/attr.属性.xlsx
+++ b/Excel/attr.属性.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8553C-D58D-4389-9865-697A45D2735B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516B144-C429-497D-A102-9F9D39021CB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
   <si>
     <t>sheet名</t>
   </si>
@@ -493,7 +493,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战宠初始值</t>
+    <t>iniVal[1][5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠1初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠2初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[2][5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[3][5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[4][5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[5][5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal[6][5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,21 +1146,24 @@
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1"/>
-    <col min="17" max="19" width="15.625" customWidth="1"/>
-    <col min="20" max="20" width="11.125" customWidth="1"/>
-    <col min="21" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="11.125" customWidth="1"/>
-    <col min="25" max="27" width="15.625" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="18" width="11.125" customWidth="1"/>
+    <col min="19" max="21" width="15.625" customWidth="1"/>
+    <col min="22" max="23" width="11.125" customWidth="1"/>
+    <col min="24" max="26" width="15.625" customWidth="1"/>
+    <col min="27" max="27" width="11.625" customWidth="1"/>
+    <col min="28" max="28" width="11.75" customWidth="1"/>
     <col min="29" max="31" width="15.625" customWidth="1"/>
-    <col min="32" max="32" width="11.125" customWidth="1"/>
+    <col min="32" max="33" width="11.125" customWidth="1"/>
+    <col min="34" max="36" width="15.625" customWidth="1"/>
+    <col min="37" max="37" width="12.25" customWidth="1"/>
+    <col min="38" max="38" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -1170,67 +1201,85 @@
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1327,8 +1376,26 @@
       <c r="AF2" t="s">
         <v>7</v>
       </c>
+      <c r="AG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1363,10 +1430,10 @@
         <v>108</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>28</v>
@@ -1425,8 +1492,26 @@
       <c r="AF3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1462,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -1521,8 +1606,26 @@
       <c r="AF4" s="4">
         <v>1</v>
       </c>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1558,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -1617,8 +1720,26 @@
       <c r="AF5" s="4">
         <v>1</v>
       </c>
+      <c r="AG5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1654,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
@@ -1713,8 +1834,26 @@
       <c r="AF6" s="4">
         <v>1</v>
       </c>
+      <c r="AG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1750,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -1809,8 +1948,26 @@
       <c r="AF7" s="4">
         <v>1</v>
       </c>
+      <c r="AG7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1848,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
@@ -1907,8 +2064,26 @@
       <c r="AF8" s="4">
         <v>1</v>
       </c>
+      <c r="AG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1944,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -2003,8 +2178,26 @@
       <c r="AF9" s="4">
         <v>1</v>
       </c>
+      <c r="AG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2101,8 +2294,26 @@
       <c r="AF10" s="4">
         <v>1</v>
       </c>
+      <c r="AG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2140,7 +2351,7 @@
         <v>100</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -2199,8 +2410,26 @@
       <c r="AF11" s="4">
         <v>1</v>
       </c>
+      <c r="AG11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2238,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
@@ -2297,8 +2526,26 @@
       <c r="AF12" s="4">
         <v>1</v>
       </c>
+      <c r="AG12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2336,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -2395,8 +2642,26 @@
       <c r="AF13" s="4">
         <v>1</v>
       </c>
+      <c r="AG13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2434,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
@@ -2493,8 +2758,26 @@
       <c r="AF14" s="4">
         <v>1</v>
       </c>
+      <c r="AG14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2530,7 +2813,7 @@
         <v>500</v>
       </c>
       <c r="M15" s="4">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
@@ -2589,8 +2872,26 @@
       <c r="AF15" s="4">
         <v>1</v>
       </c>
+      <c r="AG15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2626,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
@@ -2685,8 +2986,26 @@
       <c r="AF16" s="4">
         <v>1</v>
       </c>
+      <c r="AG16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2722,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
@@ -2781,8 +3100,26 @@
       <c r="AF17" s="4">
         <v>1</v>
       </c>
+      <c r="AG17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2818,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
@@ -2877,8 +3214,26 @@
       <c r="AF18" s="4">
         <v>1</v>
       </c>
+      <c r="AG18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2916,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
@@ -2975,8 +3330,26 @@
       <c r="AF19" s="4">
         <v>1</v>
       </c>
+      <c r="AG19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3014,7 +3387,7 @@
         <v>200</v>
       </c>
       <c r="M20" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -3073,8 +3446,26 @@
       <c r="AF20" s="4">
         <v>1</v>
       </c>
+      <c r="AG20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3112,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
@@ -3171,8 +3562,26 @@
       <c r="AF21" s="4">
         <v>1</v>
       </c>
+      <c r="AG21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3210,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
@@ -3269,8 +3678,26 @@
       <c r="AF22" s="4">
         <v>1</v>
       </c>
+      <c r="AG22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3308,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
@@ -3367,8 +3794,26 @@
       <c r="AF23" s="4">
         <v>1</v>
       </c>
+      <c r="AG23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3406,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
@@ -3465,8 +3910,26 @@
       <c r="AF24" s="4">
         <v>1</v>
       </c>
+      <c r="AG24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3504,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -3563,8 +4026,26 @@
       <c r="AF25" s="4">
         <v>1</v>
       </c>
+      <c r="AG25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3602,7 +4083,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -3659,6 +4140,24 @@
         <v>1</v>
       </c>
       <c r="AF26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="4">
         <v>1</v>
       </c>
     </row>
